--- a/Data/Pages/dlgTruckInsurance_pagInsurantData.xlsx
+++ b/Data/Pages/dlgTruckInsurance_pagInsurantData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4DCD50-351D-4CA4-A053-9E78FB39F9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4657A15F-B999-4DC2-B85D-D7B38DD6B876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="744" windowWidth="34500" windowHeight="15768" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="2160" yWindow="96" windowWidth="35280" windowHeight="15720" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>Check defaults</t>
   </si>
@@ -54,18 +54,12 @@
     <t>txtStreetAddress</t>
   </si>
   <si>
-    <t>comCountry</t>
-  </si>
-  <si>
     <t>txtZipCode</t>
   </si>
   <si>
     <t>txtCity</t>
   </si>
   <si>
-    <t>comOccupation</t>
-  </si>
-  <si>
     <t>chkHobbySpeeding</t>
   </si>
   <si>
@@ -100,13 +94,112 @@
   </si>
   <si>
     <t>VIA_Pixel9Pro_API35</t>
+  </si>
+  <si>
+    <t>id=firstname</t>
+  </si>
+  <si>
+    <t>id=lastname</t>
+  </si>
+  <si>
+    <t>id=birthdate</t>
+  </si>
+  <si>
+    <t>text="Male"</t>
+  </si>
+  <si>
+    <t>text="Female"</t>
+  </si>
+  <si>
+    <t>id=streetaddress</t>
+  </si>
+  <si>
+    <t>id=country</t>
+  </si>
+  <si>
+    <t>id=zipcode</t>
+  </si>
+  <si>
+    <t>id=city</t>
+  </si>
+  <si>
+    <t>id=occupation</t>
+  </si>
+  <si>
+    <t>text="Speeding"</t>
+  </si>
+  <si>
+    <t>text="Bungee Jumping"</t>
+  </si>
+  <si>
+    <t>text="Cliff Diving"</t>
+  </si>
+  <si>
+    <t>text="Skydiving"</t>
+  </si>
+  <si>
+    <t>xpath=//*[@name='Hobbies' and @value='Other']/parent::*</t>
+  </si>
+  <si>
+    <t>id=website</t>
+  </si>
+  <si>
+    <t>id=picture</t>
+  </si>
+  <si>
+    <t>id=open</t>
+  </si>
+  <si>
+    <t>id=preventervehicledata</t>
+  </si>
+  <si>
+    <t>id=nextenterproductdata</t>
+  </si>
+  <si>
+    <t>selCountry</t>
+  </si>
+  <si>
+    <t>selOccupation</t>
+  </si>
+  <si>
+    <t>Matthias</t>
+  </si>
+  <si>
+    <t>Schmotz</t>
+  </si>
+  <si>
+    <t>05/20/1968</t>
+  </si>
+  <si>
+    <t>&lt;CHECK&gt;</t>
+  </si>
+  <si>
+    <t>Unter der Muschel 33</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Nauheim</t>
+  </si>
+  <si>
+    <t>Selfemployed</t>
+  </si>
+  <si>
+    <t>www.matthias-schmotz.eu</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>103_TruckInsuranceAutomobile_001_SmokeTest_FillPage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,8 +215,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +234,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,15 +253,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -180,8 +291,8 @@
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>776690</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>128990</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>57813</xdr:rowOff>
     </xdr:to>
@@ -516,15 +627,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="50.77734375" customWidth="1"/>
     <col min="2" max="2" width="21.77734375" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
@@ -535,19 +646,99 @@
     <col min="10" max="10" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="16" width="20.5546875" customWidth="1"/>
     <col min="17" max="19" width="22.77734375" customWidth="1"/>
-    <col min="20" max="20" width="12.109375" customWidth="1"/>
-    <col min="21" max="21" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -572,43 +763,43 @@
         <v>8</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>2</v>
@@ -619,14 +810,70 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="1">
+        <v>64569</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q5" r:id="rId1" xr:uid="{54206253-4B1B-4AD8-9FDA-8D423DC96A38}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data/Pages/dlgTruckInsurance_pagInsurantData.xlsx
+++ b/Data/Pages/dlgTruckInsurance_pagInsurantData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4657A15F-B999-4DC2-B85D-D7B38DD6B876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FEEA17-8D67-4FAF-AE23-E2605F5E4A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="96" windowWidth="35280" windowHeight="15720" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="39096" windowHeight="15720" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
     <t>X</t>
   </si>
   <si>
-    <t>103_TruckInsuranceAutomobile_001_SmokeTest_FillPage</t>
+    <t>103_TruckInsurance_001_SmokeTest_FillPage</t>
   </si>
 </sst>
 </file>
@@ -292,7 +292,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>128990</xdr:colOff>
+      <xdr:colOff>532850</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>57813</xdr:rowOff>
     </xdr:to>
@@ -630,12 +630,12 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="44.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.77734375" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>

--- a/Data/Pages/dlgTruckInsurance_pagInsurantData.xlsx
+++ b/Data/Pages/dlgTruckInsurance_pagInsurantData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FEEA17-8D67-4FAF-AE23-E2605F5E4A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10031A08-8F3F-43A6-8F2B-A9C6993981D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="39096" windowHeight="15720" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="84" yWindow="1476" windowWidth="39612" windowHeight="13668" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>Check defaults</t>
   </si>
@@ -96,36 +96,12 @@
     <t>VIA_Pixel9Pro_API35</t>
   </si>
   <si>
-    <t>id=firstname</t>
-  </si>
-  <si>
-    <t>id=lastname</t>
-  </si>
-  <si>
-    <t>id=birthdate</t>
-  </si>
-  <si>
     <t>text="Male"</t>
   </si>
   <si>
     <t>text="Female"</t>
   </si>
   <si>
-    <t>id=streetaddress</t>
-  </si>
-  <si>
-    <t>id=country</t>
-  </si>
-  <si>
-    <t>id=zipcode</t>
-  </si>
-  <si>
-    <t>id=city</t>
-  </si>
-  <si>
-    <t>id=occupation</t>
-  </si>
-  <si>
     <t>text="Speeding"</t>
   </si>
   <si>
@@ -141,21 +117,6 @@
     <t>xpath=//*[@name='Hobbies' and @value='Other']/parent::*</t>
   </si>
   <si>
-    <t>id=website</t>
-  </si>
-  <si>
-    <t>id=picture</t>
-  </si>
-  <si>
-    <t>id=open</t>
-  </si>
-  <si>
-    <t>id=preventervehicledata</t>
-  </si>
-  <si>
-    <t>id=nextenterproductdata</t>
-  </si>
-  <si>
     <t>selCountry</t>
   </si>
   <si>
@@ -193,13 +154,70 @@
   </si>
   <si>
     <t>103_TruckInsurance_001_SmokeTest_FillPage</t>
+  </si>
+  <si>
+    <t>//*[@id="enterinsurantdata"]/span[@class="counter"]</t>
+  </si>
+  <si>
+    <t>labMissingMandatoryCounter</t>
+  </si>
+  <si>
+    <t>//*[@id='firstname']</t>
+  </si>
+  <si>
+    <t>//*[@id='lastname']</t>
+  </si>
+  <si>
+    <t>//*[@id='birthdate']</t>
+  </si>
+  <si>
+    <t>//label[text()="Gender"]/parent::*/*[@class="group"]</t>
+  </si>
+  <si>
+    <t>grpGender</t>
+  </si>
+  <si>
+    <t>//*[@id='streetaddress']</t>
+  </si>
+  <si>
+    <t>//*[@id='country']</t>
+  </si>
+  <si>
+    <t>//*[@id='zipcode']</t>
+  </si>
+  <si>
+    <t>//*[@id='city']</t>
+  </si>
+  <si>
+    <t>//*[@id='occupation']</t>
+  </si>
+  <si>
+    <t>//label[text()="Hobbies"]/parent::*/*[@class="group"]</t>
+  </si>
+  <si>
+    <t>grpHobbies</t>
+  </si>
+  <si>
+    <t>//*[@id='website']</t>
+  </si>
+  <si>
+    <t>//*[@id='picture']</t>
+  </si>
+  <si>
+    <t>//*[@id='open']</t>
+  </si>
+  <si>
+    <t>//*[@id='preventervehicledata']</t>
+  </si>
+  <si>
+    <t>//*[@id='nextenterproductdata']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,14 +229,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -253,19 +263,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -286,15 +294,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>532850</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>57813</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>128990</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>111153</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -317,7 +325,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="1127760"/>
+          <a:off x="0" y="3192780"/>
           <a:ext cx="7779470" cy="6976773"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -627,99 +635,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.109375" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
-    <col min="10" max="10" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="20.5546875" customWidth="1"/>
-    <col min="17" max="19" width="22.77734375" customWidth="1"/>
-    <col min="20" max="20" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="19" width="20.5546875" customWidth="1"/>
+    <col min="20" max="22" width="22.77734375" customWidth="1"/>
+    <col min="23" max="23" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -739,141 +757,150 @@
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="1">
+        <v>35</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="1">
         <v>64569</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="Q5" r:id="rId1" xr:uid="{54206253-4B1B-4AD8-9FDA-8D423DC96A38}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>